--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3375105</v>
+        <v>0.1541475</v>
       </c>
       <c r="H2">
-        <v>0.675021</v>
+        <v>0.308295</v>
       </c>
       <c r="I2">
-        <v>0.1178389669178411</v>
+        <v>0.07094272047539525</v>
       </c>
       <c r="J2">
-        <v>0.08278648937091339</v>
+        <v>0.04922360989744302</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.9164455</v>
+        <v>2.401912</v>
       </c>
       <c r="N2">
-        <v>13.832891</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O2">
-        <v>0.5891123781422892</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P2">
-        <v>0.5084626450322738</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q2">
-        <v>2.33437297892775</v>
+        <v>0.37024873002</v>
       </c>
       <c r="R2">
-        <v>9.337491915711</v>
+        <v>1.48099492008</v>
       </c>
       <c r="S2">
-        <v>0.0694203940387999</v>
+        <v>0.03420525082781461</v>
       </c>
       <c r="T2">
-        <v>0.04209383735847084</v>
+        <v>0.0215808806843241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3375105</v>
+        <v>0.1541475</v>
       </c>
       <c r="H3">
-        <v>0.675021</v>
+        <v>0.308295</v>
       </c>
       <c r="I3">
-        <v>0.1178389669178411</v>
+        <v>0.07094272047539525</v>
       </c>
       <c r="J3">
-        <v>0.08278648937091339</v>
+        <v>0.04922360989744302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07955900504737815</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P3">
-        <v>0.1030010155365178</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q3">
-        <v>0.315254607616</v>
+        <v>0.14398280832</v>
       </c>
       <c r="R3">
-        <v>1.891527645696</v>
+        <v>0.86389684992</v>
       </c>
       <c r="S3">
-        <v>0.009375150963794345</v>
+        <v>0.01330178248879535</v>
       </c>
       <c r="T3">
-        <v>0.008527092477907216</v>
+        <v>0.01258860147925414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +664,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3375105</v>
+        <v>0.1541475</v>
       </c>
       <c r="H4">
-        <v>0.675021</v>
+        <v>0.308295</v>
       </c>
       <c r="I4">
-        <v>0.1178389669178411</v>
+        <v>0.07094272047539525</v>
       </c>
       <c r="J4">
-        <v>0.08278648937091339</v>
+        <v>0.04922360989744302</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03577300000000001</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N4">
-        <v>0.107319</v>
+        <v>0.111226</v>
       </c>
       <c r="O4">
-        <v>0.003046986649903353</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P4">
-        <v>0.003944779338044275</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q4">
-        <v>0.0120737631165</v>
+        <v>0.005715069945</v>
       </c>
       <c r="R4">
-        <v>0.072442578699</v>
+        <v>0.03429041967</v>
       </c>
       <c r="S4">
-        <v>0.0003590537590370646</v>
+        <v>0.0005279839878361499</v>
       </c>
       <c r="T4">
-        <v>0.0003265744327396011</v>
+        <v>0.0004996758904977851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +726,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3375105</v>
+        <v>0.1541475</v>
       </c>
       <c r="H5">
-        <v>0.675021</v>
+        <v>0.308295</v>
       </c>
       <c r="I5">
-        <v>0.1178389669178411</v>
+        <v>0.07094272047539525</v>
       </c>
       <c r="J5">
-        <v>0.08278648937091339</v>
+        <v>0.04922360989744302</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.099586</v>
+        <v>1.5860085</v>
       </c>
       <c r="N5">
-        <v>2.199172</v>
+        <v>3.172017</v>
       </c>
       <c r="O5">
-        <v>0.09365789456910596</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P5">
-        <v>0.08083608928899359</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q5">
-        <v>0.371121820653</v>
+        <v>0.24447924525375</v>
       </c>
       <c r="R5">
-        <v>1.484487282612</v>
+        <v>0.9779169810149999</v>
       </c>
       <c r="S5">
-        <v>0.01103654953972353</v>
+        <v>0.02258609747465603</v>
       </c>
       <c r="T5">
-        <v>0.006692136046709474</v>
+        <v>0.01425008918012976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,108 +788,108 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.3375105</v>
+        <v>0.1541475</v>
       </c>
       <c r="H6">
-        <v>0.675021</v>
+        <v>0.308295</v>
       </c>
       <c r="I6">
-        <v>0.1178389669178411</v>
+        <v>0.07094272047539525</v>
       </c>
       <c r="J6">
-        <v>0.08278648937091339</v>
+        <v>0.04922360989744302</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.689952</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N6">
-        <v>8.069856</v>
+        <v>0.06775</v>
       </c>
       <c r="O6">
-        <v>0.2291182688866134</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P6">
-        <v>0.2966278218189939</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q6">
-        <v>0.907887044496</v>
+        <v>0.003481164375</v>
       </c>
       <c r="R6">
-        <v>5.447322266975999</v>
+        <v>0.02088698625</v>
       </c>
       <c r="S6">
-        <v>0.02699906010760265</v>
+        <v>0.0003216056962931254</v>
       </c>
       <c r="T6">
-        <v>0.02455677601813533</v>
+        <v>0.0003043626632372371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3375105</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H7">
-        <v>0.675021</v>
+        <v>2.806097</v>
       </c>
       <c r="I7">
-        <v>0.1178389669178411</v>
+        <v>0.4304798004029587</v>
       </c>
       <c r="J7">
-        <v>0.08278648937091339</v>
+        <v>0.448032644260806</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06463666666666668</v>
+        <v>2.401912</v>
       </c>
       <c r="N7">
-        <v>0.19391</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O7">
-        <v>0.005505466704709875</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P7">
-        <v>0.007127648985176579</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q7">
-        <v>0.021815553685</v>
+        <v>2.246666019154667</v>
       </c>
       <c r="R7">
-        <v>0.13089332211</v>
+        <v>13.479996114928</v>
       </c>
       <c r="S7">
-        <v>0.0006487585088835826</v>
+        <v>0.2075571595002149</v>
       </c>
       <c r="T7">
-        <v>0.0005900730369509225</v>
+        <v>0.1964288896856576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +918,40 @@
         <v>2.806097</v>
       </c>
       <c r="I8">
-        <v>0.3265750957389999</v>
+        <v>0.4304798004029587</v>
       </c>
       <c r="J8">
-        <v>0.3441476923892027</v>
+        <v>0.448032644260806</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.9164455</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N8">
-        <v>13.832891</v>
+        <v>2.802176</v>
       </c>
       <c r="O8">
-        <v>0.5891123781422892</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P8">
-        <v>0.5084626450322738</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q8">
-        <v>6.469405656071167</v>
+        <v>0.8736864074524445</v>
       </c>
       <c r="R8">
-        <v>38.816433936427</v>
+        <v>7.863177667072001</v>
       </c>
       <c r="S8">
-        <v>0.192389431292848</v>
+        <v>0.08071509849648587</v>
       </c>
       <c r="T8">
-        <v>0.1749862459539673</v>
+        <v>0.1145812836573108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>2.806097</v>
       </c>
       <c r="I9">
-        <v>0.3265750957389999</v>
+        <v>0.4304798004029587</v>
       </c>
       <c r="J9">
-        <v>0.3441476923892027</v>
+        <v>0.448032644260806</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.9340586666666667</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N9">
-        <v>2.802176</v>
+        <v>0.111226</v>
       </c>
       <c r="O9">
-        <v>0.07955900504737815</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P9">
-        <v>0.1030010155365178</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q9">
-        <v>0.8736864074524445</v>
+        <v>0.03467899388022223</v>
       </c>
       <c r="R9">
-        <v>7.863177667072001</v>
+        <v>0.312110944922</v>
       </c>
       <c r="S9">
-        <v>0.02598198969024709</v>
+        <v>0.003203802168518372</v>
       </c>
       <c r="T9">
-        <v>0.03544756181063701</v>
+        <v>0.004548043326353536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1042,40 @@
         <v>2.806097</v>
       </c>
       <c r="I10">
-        <v>0.3265750957389999</v>
+        <v>0.4304798004029587</v>
       </c>
       <c r="J10">
-        <v>0.3441476923892027</v>
+        <v>0.448032644260806</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03577300000000001</v>
+        <v>1.5860085</v>
       </c>
       <c r="N10">
-        <v>0.107319</v>
+        <v>3.172017</v>
       </c>
       <c r="O10">
-        <v>0.003046986649903353</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P10">
-        <v>0.003944779338044275</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q10">
-        <v>0.03346083599366668</v>
+        <v>1.4834978979415</v>
       </c>
       <c r="R10">
-        <v>0.301147523943</v>
+        <v>8.900987387649</v>
       </c>
       <c r="S10">
-        <v>0.000995069956907642</v>
+        <v>0.137052239717024</v>
       </c>
       <c r="T10">
-        <v>0.001357586706172544</v>
+        <v>0.1297041226685304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,54 +1104,54 @@
         <v>2.806097</v>
       </c>
       <c r="I11">
-        <v>0.3265750957389999</v>
+        <v>0.4304798004029587</v>
       </c>
       <c r="J11">
-        <v>0.3441476923892027</v>
+        <v>0.448032644260806</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.099586</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N11">
-        <v>2.199172</v>
+        <v>0.06775</v>
       </c>
       <c r="O11">
-        <v>0.09365789456910596</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P11">
-        <v>0.08083608928899359</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q11">
-        <v>1.028514991947334</v>
+        <v>0.02112367463888889</v>
       </c>
       <c r="R11">
-        <v>6.171089951684001</v>
+        <v>0.19011307175</v>
       </c>
       <c r="S11">
-        <v>0.03058633588561894</v>
+        <v>0.001951500520715657</v>
       </c>
       <c r="T11">
-        <v>0.02781955359057469</v>
+        <v>0.002770304922953735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,60 +1160,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9353656666666668</v>
+        <v>0.939315</v>
       </c>
       <c r="H12">
-        <v>2.806097</v>
+        <v>2.817945</v>
       </c>
       <c r="I12">
-        <v>0.3265750957389999</v>
+        <v>0.4322973871346982</v>
       </c>
       <c r="J12">
-        <v>0.3441476923892027</v>
+        <v>0.4499243432181841</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.689952</v>
+        <v>2.401912</v>
       </c>
       <c r="N12">
-        <v>8.069856</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O12">
-        <v>0.2291182688866134</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P12">
-        <v>0.2966278218189939</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q12">
-        <v>2.516088745781333</v>
+        <v>2.25615197028</v>
       </c>
       <c r="R12">
-        <v>22.644798712032</v>
+        <v>13.53691182168</v>
       </c>
       <c r="S12">
-        <v>0.07482432059719969</v>
+        <v>0.2084335145320468</v>
       </c>
       <c r="T12">
-        <v>0.1020837803774424</v>
+        <v>0.1972582585510231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9353656666666668</v>
+        <v>0.939315</v>
       </c>
       <c r="H13">
-        <v>2.806097</v>
+        <v>2.817945</v>
       </c>
       <c r="I13">
-        <v>0.3265750957389999</v>
+        <v>0.4322973871346982</v>
       </c>
       <c r="J13">
-        <v>0.3441476923892027</v>
+        <v>0.4499243432181841</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06463666666666668</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N13">
-        <v>0.19391</v>
+        <v>2.802176</v>
       </c>
       <c r="O13">
-        <v>0.005505466704709875</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P13">
-        <v>0.007127648985176579</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q13">
-        <v>0.06045891880777779</v>
+        <v>0.87737531648</v>
       </c>
       <c r="R13">
-        <v>0.5441302692700001</v>
+        <v>7.89637784832</v>
       </c>
       <c r="S13">
-        <v>0.001797948316178504</v>
+        <v>0.08105589658257709</v>
       </c>
       <c r="T13">
-        <v>0.002452963950408762</v>
+        <v>0.1150650727240365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.330226</v>
+        <v>0.939315</v>
       </c>
       <c r="H14">
-        <v>0.9906780000000001</v>
+        <v>2.817945</v>
       </c>
       <c r="I14">
-        <v>0.1152956446967161</v>
+        <v>0.4322973871346982</v>
       </c>
       <c r="J14">
-        <v>0.1214995588537212</v>
+        <v>0.4499243432181841</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.9164455</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N14">
-        <v>13.832891</v>
+        <v>0.111226</v>
       </c>
       <c r="O14">
-        <v>0.5891123781422892</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P14">
-        <v>0.5084626450322738</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q14">
-        <v>2.283990131683</v>
+        <v>0.03482541673</v>
       </c>
       <c r="R14">
-        <v>13.703940790098</v>
+        <v>0.31342875057</v>
       </c>
       <c r="S14">
-        <v>0.06792209143673084</v>
+        <v>0.003217329373063548</v>
       </c>
       <c r="T14">
-        <v>0.0617779870650175</v>
+        <v>0.004567246232500628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.939315</v>
+      </c>
+      <c r="H15">
+        <v>2.817945</v>
+      </c>
+      <c r="I15">
+        <v>0.4322973871346982</v>
+      </c>
+      <c r="J15">
+        <v>0.4499243432181841</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.330226</v>
-      </c>
-      <c r="H15">
-        <v>0.9906780000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.1152956446967161</v>
-      </c>
-      <c r="J15">
-        <v>0.1214995588537212</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9340586666666667</v>
+        <v>1.5860085</v>
       </c>
       <c r="N15">
-        <v>2.802176</v>
+        <v>3.172017</v>
       </c>
       <c r="O15">
-        <v>0.07955900504737815</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P15">
-        <v>0.1030010155365178</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q15">
-        <v>0.3084504572586667</v>
+        <v>1.4897615741775</v>
       </c>
       <c r="R15">
-        <v>2.776054115328</v>
+        <v>8.938569445064999</v>
       </c>
       <c r="S15">
-        <v>0.009172806778366753</v>
+        <v>0.1376309064331664</v>
       </c>
       <c r="T15">
-        <v>0.01251457794917219</v>
+        <v>0.1302517639102183</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.330226</v>
+        <v>0.939315</v>
       </c>
       <c r="H16">
-        <v>0.9906780000000001</v>
+        <v>2.817945</v>
       </c>
       <c r="I16">
-        <v>0.1152956446967161</v>
+        <v>0.4322973871346982</v>
       </c>
       <c r="J16">
-        <v>0.1214995588537212</v>
+        <v>0.4499243432181841</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,60 +1426,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03577300000000001</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N16">
-        <v>0.107319</v>
+        <v>0.06775</v>
       </c>
       <c r="O16">
-        <v>0.003046986649903353</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P16">
-        <v>0.003944779338044275</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q16">
-        <v>0.011813174698</v>
+        <v>0.02121286375</v>
       </c>
       <c r="R16">
-        <v>0.106318572282</v>
+        <v>0.19091577375</v>
       </c>
       <c r="S16">
-        <v>0.0003513042901828942</v>
+        <v>0.001959740213844383</v>
       </c>
       <c r="T16">
-        <v>0.0004792889493476537</v>
+        <v>0.002782001800405638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.330226</v>
+        <v>0.101233</v>
       </c>
       <c r="H17">
-        <v>0.9906780000000001</v>
+        <v>0.202466</v>
       </c>
       <c r="I17">
-        <v>0.1152956446967161</v>
+        <v>0.04659008042222993</v>
       </c>
       <c r="J17">
-        <v>0.1214995588537212</v>
+        <v>0.03232652946527093</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,60 +1488,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.099586</v>
+        <v>2.401912</v>
       </c>
       <c r="N17">
-        <v>2.199172</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O17">
-        <v>0.09365789456910596</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P17">
-        <v>0.08083608928899359</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q17">
-        <v>0.3631118864360001</v>
+        <v>0.243152757496</v>
       </c>
       <c r="R17">
-        <v>2.178671318616</v>
+        <v>0.9726110299840002</v>
       </c>
       <c r="S17">
-        <v>0.01079834733528214</v>
+        <v>0.02246355054121641</v>
       </c>
       <c r="T17">
-        <v>0.009821549188072739</v>
+        <v>0.01417277149688566</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.330226</v>
+        <v>0.101233</v>
       </c>
       <c r="H18">
-        <v>0.9906780000000001</v>
+        <v>0.202466</v>
       </c>
       <c r="I18">
-        <v>0.1152956446967161</v>
+        <v>0.04659008042222993</v>
       </c>
       <c r="J18">
-        <v>0.1214995588537212</v>
+        <v>0.03232652946527093</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1550,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.689952</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N18">
-        <v>8.069856</v>
+        <v>2.802176</v>
       </c>
       <c r="O18">
-        <v>0.2291182688866134</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P18">
-        <v>0.2966278218189939</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q18">
-        <v>0.888292089152</v>
+        <v>0.09455756100266667</v>
       </c>
       <c r="R18">
-        <v>7.994628802368</v>
+        <v>0.5673453660160001</v>
       </c>
       <c r="S18">
-        <v>0.02641633852307764</v>
+        <v>0.008735654789654192</v>
       </c>
       <c r="T18">
-        <v>0.03604014949474798</v>
+        <v>0.008267288756219432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.330226</v>
+        <v>0.101233</v>
       </c>
       <c r="H19">
-        <v>0.9906780000000001</v>
+        <v>0.202466</v>
       </c>
       <c r="I19">
-        <v>0.1152956446967161</v>
+        <v>0.04659008042222993</v>
       </c>
       <c r="J19">
-        <v>0.1214995588537212</v>
+        <v>0.03232652946527093</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.06463666666666668</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N19">
-        <v>0.19391</v>
+        <v>0.111226</v>
       </c>
       <c r="O19">
-        <v>0.005505466704709875</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P19">
-        <v>0.007127648985176579</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q19">
-        <v>0.02134470788666667</v>
+        <v>0.003753247219333334</v>
       </c>
       <c r="R19">
-        <v>0.19210237098</v>
+        <v>0.022519483316</v>
       </c>
       <c r="S19">
-        <v>0.0006347563330758301</v>
+        <v>0.0003467419389910116</v>
       </c>
       <c r="T19">
-        <v>0.0008660062073631279</v>
+        <v>0.000328151215055465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1665,10 +1662,10 @@
         <v>0.202466</v>
       </c>
       <c r="I20">
-        <v>0.03534465487145973</v>
+        <v>0.04659008042222993</v>
       </c>
       <c r="J20">
-        <v>0.02483100430500881</v>
+        <v>0.03232652946527093</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.9164455</v>
+        <v>1.5860085</v>
       </c>
       <c r="N20">
-        <v>13.832891</v>
+        <v>3.172017</v>
       </c>
       <c r="O20">
-        <v>0.5891123781422892</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P20">
-        <v>0.5084626450322738</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q20">
-        <v>0.7001725273015</v>
+        <v>0.1605563984805</v>
       </c>
       <c r="R20">
-        <v>2.800690109206</v>
+        <v>0.642225593922</v>
       </c>
       <c r="S20">
-        <v>0.02082197368594409</v>
+        <v>0.01483292564363258</v>
       </c>
       <c r="T20">
-        <v>0.01262563812773256</v>
+        <v>0.009358434473293929</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1727,288 +1724,288 @@
         <v>0.202466</v>
       </c>
       <c r="I21">
-        <v>0.03534465487145973</v>
+        <v>0.04659008042222993</v>
       </c>
       <c r="J21">
-        <v>0.02483100430500881</v>
+        <v>0.03232652946527093</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.9340586666666667</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N21">
-        <v>2.802176</v>
+        <v>0.06775</v>
       </c>
       <c r="O21">
-        <v>0.07955900504737815</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P21">
-        <v>0.1030010155365178</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q21">
-        <v>0.09455756100266667</v>
+        <v>0.002286178583333333</v>
       </c>
       <c r="R21">
-        <v>0.5673453660160001</v>
+        <v>0.0137170715</v>
       </c>
       <c r="S21">
-        <v>0.002811985575316303</v>
+        <v>0.0002112075087357366</v>
       </c>
       <c r="T21">
-        <v>0.002557618660207552</v>
+        <v>0.0001998835238164435</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.101233</v>
+        <v>0.04278333333333333</v>
       </c>
       <c r="H22">
-        <v>0.202466</v>
+        <v>0.12835</v>
       </c>
       <c r="I22">
-        <v>0.03534465487145973</v>
+        <v>0.01969001156471773</v>
       </c>
       <c r="J22">
-        <v>0.02483100430500881</v>
+        <v>0.02049287315829583</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03577300000000001</v>
+        <v>2.401912</v>
       </c>
       <c r="N22">
-        <v>0.107319</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O22">
-        <v>0.003046986649903353</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P22">
-        <v>0.003944779338044275</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q22">
-        <v>0.003621408109000001</v>
+        <v>0.1027618017333333</v>
       </c>
       <c r="R22">
-        <v>0.021728448654</v>
+        <v>0.6165708104000001</v>
       </c>
       <c r="S22">
-        <v>0.0001076946915387793</v>
+        <v>0.00949359962319641</v>
       </c>
       <c r="T22">
-        <v>9.795283272528718E-05</v>
+        <v>0.008984596038965918</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.101233</v>
+        <v>0.04278333333333333</v>
       </c>
       <c r="H23">
-        <v>0.202466</v>
+        <v>0.12835</v>
       </c>
       <c r="I23">
-        <v>0.03534465487145973</v>
+        <v>0.01969001156471773</v>
       </c>
       <c r="J23">
-        <v>0.02483100430500881</v>
+        <v>0.02049287315829583</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.099586</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N23">
-        <v>2.199172</v>
+        <v>2.802176</v>
       </c>
       <c r="O23">
-        <v>0.09365789456910596</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P23">
-        <v>0.08083608928899359</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q23">
-        <v>0.111314389538</v>
+        <v>0.03996214328888889</v>
       </c>
       <c r="R23">
-        <v>0.4452575581520001</v>
+        <v>0.3596592896</v>
       </c>
       <c r="S23">
-        <v>0.003310305959532613</v>
+        <v>0.003691883385365495</v>
       </c>
       <c r="T23">
-        <v>0.002007241281135076</v>
+        <v>0.005240912112951132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.101233</v>
+        <v>0.04278333333333333</v>
       </c>
       <c r="H24">
-        <v>0.202466</v>
+        <v>0.12835</v>
       </c>
       <c r="I24">
-        <v>0.03534465487145973</v>
+        <v>0.01969001156471773</v>
       </c>
       <c r="J24">
-        <v>0.02483100430500881</v>
+        <v>0.02049287315829583</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.689952</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N24">
-        <v>8.069856</v>
+        <v>0.111226</v>
       </c>
       <c r="O24">
-        <v>0.2291182688866134</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P24">
-        <v>0.2966278218189939</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q24">
-        <v>0.272311910816</v>
+        <v>0.001586206344444444</v>
       </c>
       <c r="R24">
-        <v>1.633871464896</v>
+        <v>0.0142758571</v>
       </c>
       <c r="S24">
-        <v>0.00809810613854366</v>
+        <v>0.0001465409101429256</v>
       </c>
       <c r="T24">
-        <v>0.007365566720572824</v>
+        <v>0.0002080260806869742</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.101233</v>
+        <v>0.04278333333333333</v>
       </c>
       <c r="H25">
-        <v>0.202466</v>
+        <v>0.12835</v>
       </c>
       <c r="I25">
-        <v>0.03534465487145973</v>
+        <v>0.01969001156471773</v>
       </c>
       <c r="J25">
-        <v>0.02483100430500881</v>
+        <v>0.02049287315829583</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.06463666666666668</v>
+        <v>1.5860085</v>
       </c>
       <c r="N25">
-        <v>0.19391</v>
+        <v>3.172017</v>
       </c>
       <c r="O25">
-        <v>0.005505466704709875</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P25">
-        <v>0.007127648985176579</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q25">
-        <v>0.006543363676666668</v>
+        <v>0.067854730325</v>
       </c>
       <c r="R25">
-        <v>0.03926018206000001</v>
+        <v>0.40712838195</v>
       </c>
       <c r="S25">
-        <v>0.0001945888205842832</v>
+        <v>0.006268726621952136</v>
       </c>
       <c r="T25">
-        <v>0.0001769866826355113</v>
+        <v>0.005932626044112471</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,743 +2013,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.320466</v>
+        <v>0.04278333333333333</v>
       </c>
       <c r="H26">
-        <v>0.961398</v>
+        <v>0.12835</v>
       </c>
       <c r="I26">
-        <v>0.1118880223646164</v>
+        <v>0.01969001156471773</v>
       </c>
       <c r="J26">
-        <v>0.1179085766342342</v>
+        <v>0.02049287315829583</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.9164455</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N26">
-        <v>13.832891</v>
+        <v>0.06775</v>
       </c>
       <c r="O26">
-        <v>0.5891123781422892</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P26">
-        <v>0.5084626450322738</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q26">
-        <v>2.216485623603</v>
+        <v>0.0009661902777777778</v>
       </c>
       <c r="R26">
-        <v>13.298913741618</v>
+        <v>0.008695712499999999</v>
       </c>
       <c r="S26">
-        <v>0.0659146189408568</v>
+        <v>8.926102406077002E-05</v>
       </c>
       <c r="T26">
-        <v>0.05995210674743327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.320466</v>
-      </c>
-      <c r="H27">
-        <v>0.961398</v>
-      </c>
-      <c r="I27">
-        <v>0.1118880223646164</v>
-      </c>
-      <c r="J27">
-        <v>0.1179085766342342</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.9340586666666667</v>
-      </c>
-      <c r="N27">
-        <v>2.802176</v>
-      </c>
-      <c r="O27">
-        <v>0.07955900504737815</v>
-      </c>
-      <c r="P27">
-        <v>0.1030010155365178</v>
-      </c>
-      <c r="Q27">
-        <v>0.299334044672</v>
-      </c>
-      <c r="R27">
-        <v>2.694006402048</v>
-      </c>
-      <c r="S27">
-        <v>0.008901699736047673</v>
-      </c>
-      <c r="T27">
-        <v>0.01214470313379145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.320466</v>
-      </c>
-      <c r="H28">
-        <v>0.961398</v>
-      </c>
-      <c r="I28">
-        <v>0.1118880223646164</v>
-      </c>
-      <c r="J28">
-        <v>0.1179085766342342</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.03577300000000001</v>
-      </c>
-      <c r="N28">
-        <v>0.107319</v>
-      </c>
-      <c r="O28">
-        <v>0.003046986649903353</v>
-      </c>
-      <c r="P28">
-        <v>0.003944779338044275</v>
-      </c>
-      <c r="Q28">
-        <v>0.011464030218</v>
-      </c>
-      <c r="R28">
-        <v>0.103176271962</v>
-      </c>
-      <c r="S28">
-        <v>0.0003409213104290739</v>
-      </c>
-      <c r="T28">
-        <v>0.0004651233168849369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.320466</v>
-      </c>
-      <c r="H29">
-        <v>0.961398</v>
-      </c>
-      <c r="I29">
-        <v>0.1118880223646164</v>
-      </c>
-      <c r="J29">
-        <v>0.1179085766342342</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.099586</v>
-      </c>
-      <c r="N29">
-        <v>2.199172</v>
-      </c>
-      <c r="O29">
-        <v>0.09365789456910596</v>
-      </c>
-      <c r="P29">
-        <v>0.08083608928899359</v>
-      </c>
-      <c r="Q29">
-        <v>0.352379927076</v>
-      </c>
-      <c r="R29">
-        <v>2.114279562456</v>
-      </c>
-      <c r="S29">
-        <v>0.01047919660217101</v>
-      </c>
-      <c r="T29">
-        <v>0.009531268228743098</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.320466</v>
-      </c>
-      <c r="H30">
-        <v>0.961398</v>
-      </c>
-      <c r="I30">
-        <v>0.1118880223646164</v>
-      </c>
-      <c r="J30">
-        <v>0.1179085766342342</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.689952</v>
-      </c>
-      <c r="N30">
-        <v>8.069856</v>
-      </c>
-      <c r="O30">
-        <v>0.2291182688866134</v>
-      </c>
-      <c r="P30">
-        <v>0.2966278218189939</v>
-      </c>
-      <c r="Q30">
-        <v>0.8620381576319999</v>
-      </c>
-      <c r="R30">
-        <v>7.758343418688</v>
-      </c>
-      <c r="S30">
-        <v>0.02563558999332759</v>
-      </c>
-      <c r="T30">
-        <v>0.03497496426079081</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.320466</v>
-      </c>
-      <c r="H31">
-        <v>0.961398</v>
-      </c>
-      <c r="I31">
-        <v>0.1118880223646164</v>
-      </c>
-      <c r="J31">
-        <v>0.1179085766342342</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.06463666666666668</v>
-      </c>
-      <c r="N31">
-        <v>0.19391</v>
-      </c>
-      <c r="O31">
-        <v>0.005505466704709875</v>
-      </c>
-      <c r="P31">
-        <v>0.007127648985176579</v>
-      </c>
-      <c r="Q31">
-        <v>0.02071385402</v>
-      </c>
-      <c r="R31">
-        <v>0.18642468618</v>
-      </c>
-      <c r="S31">
-        <v>0.0006159957817842294</v>
-      </c>
-      <c r="T31">
-        <v>0.0008404109465906141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.8393660000000001</v>
-      </c>
-      <c r="H32">
-        <v>2.518098</v>
-      </c>
-      <c r="I32">
-        <v>0.2930576154103668</v>
-      </c>
-      <c r="J32">
-        <v>0.3088266784469199</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.9164455</v>
-      </c>
-      <c r="N32">
-        <v>13.832891</v>
-      </c>
-      <c r="O32">
-        <v>0.5891123781422892</v>
-      </c>
-      <c r="P32">
-        <v>0.5084626450322738</v>
-      </c>
-      <c r="Q32">
-        <v>5.805429193553</v>
-      </c>
-      <c r="R32">
-        <v>34.832575161318</v>
-      </c>
-      <c r="S32">
-        <v>0.1726438687471096</v>
-      </c>
-      <c r="T32">
-        <v>0.1570268297796524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.8393660000000001</v>
-      </c>
-      <c r="H33">
-        <v>2.518098</v>
-      </c>
-      <c r="I33">
-        <v>0.2930576154103668</v>
-      </c>
-      <c r="J33">
-        <v>0.3088266784469199</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.9340586666666667</v>
-      </c>
-      <c r="N33">
-        <v>2.802176</v>
-      </c>
-      <c r="O33">
-        <v>0.07955900504737815</v>
-      </c>
-      <c r="P33">
-        <v>0.1030010155365178</v>
-      </c>
-      <c r="Q33">
-        <v>0.7840170868053334</v>
-      </c>
-      <c r="R33">
-        <v>7.056153781248001</v>
-      </c>
-      <c r="S33">
-        <v>0.02331537230360598</v>
-      </c>
-      <c r="T33">
-        <v>0.03180946150480238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.8393660000000001</v>
-      </c>
-      <c r="H34">
-        <v>2.518098</v>
-      </c>
-      <c r="I34">
-        <v>0.2930576154103668</v>
-      </c>
-      <c r="J34">
-        <v>0.3088266784469199</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.03577300000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.107319</v>
-      </c>
-      <c r="O34">
-        <v>0.003046986649903353</v>
-      </c>
-      <c r="P34">
-        <v>0.003944779338044275</v>
-      </c>
-      <c r="Q34">
-        <v>0.03002663991800001</v>
-      </c>
-      <c r="R34">
-        <v>0.2702397592620001</v>
-      </c>
-      <c r="S34">
-        <v>0.0008929426418078988</v>
-      </c>
-      <c r="T34">
-        <v>0.001218253100174253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.8393660000000001</v>
-      </c>
-      <c r="H35">
-        <v>2.518098</v>
-      </c>
-      <c r="I35">
-        <v>0.2930576154103668</v>
-      </c>
-      <c r="J35">
-        <v>0.3088266784469199</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.099586</v>
-      </c>
-      <c r="N35">
-        <v>2.199172</v>
-      </c>
-      <c r="O35">
-        <v>0.09365789456910596</v>
-      </c>
-      <c r="P35">
-        <v>0.08083608928899359</v>
-      </c>
-      <c r="Q35">
-        <v>0.9229551024760002</v>
-      </c>
-      <c r="R35">
-        <v>5.537730614856001</v>
-      </c>
-      <c r="S35">
-        <v>0.02744715924677774</v>
-      </c>
-      <c r="T35">
-        <v>0.02496434095375853</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.8393660000000001</v>
-      </c>
-      <c r="H36">
-        <v>2.518098</v>
-      </c>
-      <c r="I36">
-        <v>0.2930576154103668</v>
-      </c>
-      <c r="J36">
-        <v>0.3088266784469199</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.689952</v>
-      </c>
-      <c r="N36">
-        <v>8.069856</v>
-      </c>
-      <c r="O36">
-        <v>0.2291182688866134</v>
-      </c>
-      <c r="P36">
-        <v>0.2966278218189939</v>
-      </c>
-      <c r="Q36">
-        <v>2.257854250432</v>
-      </c>
-      <c r="R36">
-        <v>20.320688253888</v>
-      </c>
-      <c r="S36">
-        <v>0.06714485352686217</v>
-      </c>
-      <c r="T36">
-        <v>0.09160658494730468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.8393660000000001</v>
-      </c>
-      <c r="H37">
-        <v>2.518098</v>
-      </c>
-      <c r="I37">
-        <v>0.2930576154103668</v>
-      </c>
-      <c r="J37">
-        <v>0.3088266784469199</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.06463666666666668</v>
-      </c>
-      <c r="N37">
-        <v>0.19391</v>
-      </c>
-      <c r="O37">
-        <v>0.005505466704709875</v>
-      </c>
-      <c r="P37">
-        <v>0.007127648985176579</v>
-      </c>
-      <c r="Q37">
-        <v>0.05425382035333334</v>
-      </c>
-      <c r="R37">
-        <v>0.4882843831800001</v>
-      </c>
-      <c r="S37">
-        <v>0.001613418944203446</v>
-      </c>
-      <c r="T37">
-        <v>0.002201208161227642</v>
+        <v>0.0001267128815793295</v>
       </c>
     </row>
   </sheetData>
